--- a/Project list.xlsx
+++ b/Project list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\praje\Documents\ML Projects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\praje\Documents\Git local\ML-algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9234220D-0474-447C-B624-0E8606BE09D7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF78CF1-6CF4-4C50-BC89-AECC23B4323E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>S. No.</t>
   </si>
@@ -40,6 +40,21 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>Domain</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>Credit Risk Modeling</t>
+  </si>
+  <si>
+    <t>Model to predict if the loan provided by a financial institution will default or not. The output generated is a probability of failing to repay the loan. Higher the value, greater the risk of defaulting.</t>
+  </si>
+  <si>
+    <t>In-progress</t>
   </si>
 </sst>
 </file>
@@ -89,13 +104,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -377,21 +401,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="29.6640625" customWidth="1"/>
-    <col min="3" max="3" width="48.5546875" customWidth="1"/>
-    <col min="4" max="4" width="29.88671875" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="2" max="3" width="29.6640625" customWidth="1"/>
+    <col min="4" max="4" width="48.5546875" customWidth="1"/>
+    <col min="5" max="5" width="29.88671875" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -399,13 +423,33 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="4" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
